--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580"/>
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Jak kupimy wszystko w promocji, to będziemy mogli stwierdzić ile ew. dokupić po malowaniu…</t>
+  </si>
+  <si>
+    <t>Garść muszelek</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -215,14 +218,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>2.5</v>
@@ -753,12 +756,14 @@
         <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2">
         <v>7.5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
@@ -799,7 +804,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="3">
         <f t="shared" ref="B10:C10" si="0">SUBTOTAL(109,B2:B9)</f>
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -814,7 +819,7 @@
       </c>
       <c r="B11" s="4">
         <f>B10/14</f>
-        <v>18.785714285714285</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
@@ -825,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -836,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580"/>
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -108,16 +108,20 @@
     <t>Jakiej zostanie z innych pomieszczeń. Może jakiś mix?</t>
   </si>
   <si>
-    <t>Farba potrzbna (1l/14m2)</t>
-  </si>
-  <si>
-    <t>Farba potrzbna (1l/12m2)</t>
-  </si>
-  <si>
-    <t>Jak kupimy wszystko w promocji, to będziemy mogli stwierdzić ile ew. dokupić po malowaniu…</t>
-  </si>
-  <si>
     <t>Garść muszelek</t>
+  </si>
+  <si>
+    <t>Jak kupimy wszystko w promocji, to będziemy mogli 
+stwierdzić ile ew. dokupić po malowaniu…</t>
+  </si>
+  <si>
+    <t>Zestawienie farb Mati</t>
+  </si>
+  <si>
+    <t>Farba potrzebna (1l/12m2)</t>
+  </si>
+  <si>
+    <t>Farba potrzebna (1l/14m2)</t>
   </si>
 </sst>
 </file>
@@ -127,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +143,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -229,6 +241,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -340,8 +356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A3:E17" totalsRowShown="0">
+  <autoFilter ref="A3:E17"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Pomieszczenie" dataDxfId="4"/>
     <tableColumn id="2" name="Pow. m2" dataDxfId="3"/>
@@ -638,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,253 +666,259 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>2.5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:C10" si="0">SUBTOTAL(109,B2:B9)</f>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:C12" si="0">SUBTOTAL(109,B4:B11)</f>
         <v>270</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <f>B10/14</f>
-        <v>19.285714285714285</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12/14</f>
+        <v>19.285714285714285</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3">
-        <f>SUBTOTAL(109,B12:B13)</f>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="33" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3">
+        <f>SUBTOTAL(109,B14:B15)</f>
         <v>130</v>
       </c>
-      <c r="C14" s="3">
-        <f>C10/2</f>
+      <c r="C16" s="3">
+        <f>C12/2</f>
         <v>10</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="8" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7">
-        <f>B14/12</f>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B16/12</f>
         <v>10.833333333333334</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -33,18 +33,9 @@
     <t>Sypialnia</t>
   </si>
   <si>
-    <t>Lawenda</t>
-  </si>
-  <si>
-    <t>Przednia ściana lawenda, boki - rozrobiona z białą</t>
-  </si>
-  <si>
     <t>Maciek</t>
   </si>
   <si>
-    <t>Zielona wyspa</t>
-  </si>
-  <si>
     <t>Może jakąś scianę też się rozrobi jaśniej?</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>Schody</t>
   </si>
   <si>
-    <t>Beżowy pled/pustynny szlak</t>
-  </si>
-  <si>
     <t>Na razie malujemy tylko przedpokój góra!!! (17m2)</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
   </si>
   <si>
     <t>Garderoba</t>
-  </si>
-  <si>
-    <t>Jakiej zostanie z innych pomieszczeń. Może jakiś mix?</t>
   </si>
   <si>
     <t>Garść muszelek</t>
@@ -122,6 +107,30 @@
   </si>
   <si>
     <t>Farba potrzebna (1l/14m2)</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Pow. M22</t>
+  </si>
+  <si>
+    <t>Litrów z m2</t>
+  </si>
+  <si>
+    <t>Lawenda/ Wrzosowy świt</t>
+  </si>
+  <si>
+    <t>Tropikalny las</t>
+  </si>
+  <si>
+    <t>Stepy Bengalu</t>
+  </si>
+  <si>
+    <t>Jak zostanie jakiejść. Może mix?</t>
+  </si>
+  <si>
+    <t>Przednia ściana lawenda, boki - wrzos</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +161,15 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -221,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,11 +263,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -295,6 +331,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -310,6 +365,12 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -356,12 +417,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A3:E17" totalsRowShown="0">
-  <autoFilter ref="A3:E17"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Pomieszczenie" dataDxfId="4"/>
-    <tableColumn id="2" name="Pow. m2" dataDxfId="3"/>
-    <tableColumn id="3" name="Ilość farby" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A3:H17" totalsRowShown="0">
+  <autoFilter ref="A3:H17">
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Pomieszczenie" dataDxfId="7"/>
+    <tableColumn id="2" name="Pow. m2" dataDxfId="6"/>
+    <tableColumn id="6" name="Pow. M22" dataDxfId="5">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Pow. m2]]*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Litrów z m2" dataDxfId="4">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Pow. M22]]/14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Ilość farby" dataDxfId="3"/>
+    <tableColumn id="7" name="Kolumna1" dataDxfId="2"/>
     <tableColumn id="4" name="Kolor" dataDxfId="1"/>
     <tableColumn id="5" name="Uwagi" dataDxfId="0"/>
   </tableColumns>
@@ -654,271 +726,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25">
+    <row r="1" spans="1:8" ht="23.25">
       <c r="B1" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>32</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>64</v>
+      </c>
+      <c r="D4" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="E4" s="2">
         <v>2.5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>27</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>54</v>
+      </c>
+      <c r="D5" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>3.8571428571428572</v>
+      </c>
+      <c r="E5" s="2">
         <v>2.5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>54</v>
+      </c>
+      <c r="D6" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>3.8571428571428572</v>
+      </c>
+      <c r="E6" s="2">
         <v>2.5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>36</v>
+      </c>
+      <c r="D7" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>54</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>108</v>
+      </c>
+      <c r="D8" s="16">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>98</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>196</v>
+      </c>
+      <c r="D9" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
         <v>7.5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>20</v>
+      </c>
+      <c r="D11" s="15">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:C12" si="0">SUBTOTAL(109,B4:B11)</f>
+        <f t="shared" ref="B12:F12" si="0">SUBTOTAL(109,B4:B11)</f>
         <v>270</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>540</v>
+      </c>
+      <c r="D12" s="4">
+        <f>Tabela1[[#This Row],[Pow. M22]]/14</f>
+        <v>38.571428571428569</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4">
         <f>B12/14</f>
         <v>19.285714285714285</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="4">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>38.571428571428569</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>70</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>140</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>60</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1">
+      <c r="C15" s="11">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>120</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="33" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
         <f>SUBTOTAL(109,B14:B15)</f>
         <v>130</v>
       </c>
-      <c r="C16" s="3">
-        <f>C12/2</f>
+      <c r="C16" s="12">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>260</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3">
+        <f>E12/2</f>
         <v>10</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7">
         <f>B16/12</f>
         <v>10.833333333333334</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C17" s="7">
+        <f>Tabela1[[#This Row],[Pow. m2]]*2</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Harmonogram prac malowania" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -131,6 +131,150 @@
   </si>
   <si>
     <t>Przednia ściana lawenda, boki - wrzos</t>
+  </si>
+  <si>
+    <t>Akryl - przedpokój</t>
+  </si>
+  <si>
+    <t>Akryl - sypialnia główna</t>
+  </si>
+  <si>
+    <t>Akryl - garderoba</t>
+  </si>
+  <si>
+    <t>2,5h</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Sypialnia żółta - sufit 1</t>
+  </si>
+  <si>
+    <t>Sypialnie żółta - sufit 2</t>
+  </si>
+  <si>
+    <t>Sypialnia żółta - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnie żółta - ściany 2</t>
+  </si>
+  <si>
+    <t>Sypialnia zielona - sufit 1</t>
+  </si>
+  <si>
+    <t>Sypialnia zielona - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia zielona - sufit 2</t>
+  </si>
+  <si>
+    <t>Sypialnia zielona - ściany 2</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet - sufit 1</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet - sufit 2</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet - ściany 2</t>
+  </si>
+  <si>
+    <t>Garderoba - sufit 1</t>
+  </si>
+  <si>
+    <t>Garderoba - sufit 2</t>
+  </si>
+  <si>
+    <t>Garderoba - ściany 1</t>
+  </si>
+  <si>
+    <t>Garderoba - ściany 2</t>
+  </si>
+  <si>
+    <t>Przedpokój - sufit 1</t>
+  </si>
+  <si>
+    <t>Przedpokój - sufit 2</t>
+  </si>
+  <si>
+    <t>Przedpokój - ściany 1</t>
+  </si>
+  <si>
+    <t>Przedpokój - ściany 2</t>
+  </si>
+  <si>
+    <t>Kuchnia, hol - ściany 2</t>
+  </si>
+  <si>
+    <t>Wiatrołap - grunt</t>
+  </si>
+  <si>
+    <t>Wiatrołap - sufit 1</t>
+  </si>
+  <si>
+    <t>Wiatrołap - sufit 2</t>
+  </si>
+  <si>
+    <t>Wiatrołap - ściany 1</t>
+  </si>
+  <si>
+    <t>Wiatrołap - ściany 2</t>
+  </si>
+  <si>
+    <t>Kuchnia - tapeta</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>środa</t>
+  </si>
+  <si>
+    <t>czwartek</t>
+  </si>
+  <si>
+    <t>sobota</t>
+  </si>
+  <si>
+    <t>niedziela</t>
+  </si>
+  <si>
+    <t>poniedziałek</t>
+  </si>
+  <si>
+    <t>Kuchnia - zamówienie tapety</t>
+  </si>
+  <si>
+    <t>piątek</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Kontener - zamówić</t>
+  </si>
+  <si>
+    <t>Kontener - odebrać</t>
+  </si>
+  <si>
+    <t>8h</t>
   </si>
 </sst>
 </file>
@@ -140,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +318,21 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -281,6 +440,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -728,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,14 +1308,769 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="19" customWidth="1"/>
+    <col min="5" max="12" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20">
+        <v>41899</v>
+      </c>
+      <c r="C4" s="21">
+        <v>41900</v>
+      </c>
+      <c r="D4" s="21">
+        <v>41901</v>
+      </c>
+      <c r="E4" s="21">
+        <v>41902</v>
+      </c>
+      <c r="F4" s="21">
+        <v>41903</v>
+      </c>
+      <c r="G4" s="21">
+        <v>41904</v>
+      </c>
+      <c r="H4" s="21">
+        <v>41906</v>
+      </c>
+      <c r="I4" s="21">
+        <v>41907</v>
+      </c>
+      <c r="J4" s="21">
+        <v>41909</v>
+      </c>
+      <c r="K4" s="21">
+        <v>41910</v>
+      </c>
+      <c r="L4" s="21">
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Farby" sheetId="1" r:id="rId1"/>
     <sheet name="Harmonogram prac malowania" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -256,9 +255,6 @@
     <t>niedziela</t>
   </si>
   <si>
-    <t>poniedziałek</t>
-  </si>
-  <si>
     <t>Kuchnia - zamówienie tapety</t>
   </si>
   <si>
@@ -275,16 +271,29 @@
   </si>
   <si>
     <t>8h</t>
+  </si>
+  <si>
+    <t>M&amp;M</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>pon</t>
+  </si>
+  <si>
+    <t>Harmonogram malowania - MATI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="d/mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +339,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
@@ -398,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -443,8 +459,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1308,781 +1332,804 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="19" customWidth="1"/>
-    <col min="5" max="12" width="10.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="19"/>
+    <col min="2" max="2" width="6" style="19" customWidth="1"/>
+    <col min="3" max="13" width="7" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="1:13" ht="22.5">
+      <c r="C1" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="G3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="22">
+        <v>41899</v>
+      </c>
+      <c r="D6" s="22">
+        <v>41900</v>
+      </c>
+      <c r="E6" s="22">
+        <v>41901</v>
+      </c>
+      <c r="F6" s="22">
+        <v>41902</v>
+      </c>
+      <c r="G6" s="22">
+        <v>41903</v>
+      </c>
+      <c r="H6" s="22">
+        <v>41904</v>
+      </c>
+      <c r="I6" s="22">
+        <v>41906</v>
+      </c>
+      <c r="J6" s="22">
+        <v>41907</v>
+      </c>
+      <c r="K6" s="22">
+        <v>41909</v>
+      </c>
+      <c r="L6" s="22">
+        <v>41910</v>
+      </c>
+      <c r="M6" s="22">
+        <v>41911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20">
-        <v>41899</v>
-      </c>
-      <c r="C4" s="21">
-        <v>41900</v>
-      </c>
-      <c r="D4" s="21">
-        <v>41901</v>
-      </c>
-      <c r="E4" s="21">
-        <v>41902</v>
-      </c>
-      <c r="F4" s="21">
-        <v>41903</v>
-      </c>
-      <c r="G4" s="21">
-        <v>41904</v>
-      </c>
-      <c r="H4" s="21">
-        <v>41906</v>
-      </c>
-      <c r="I4" s="21">
-        <v>41907</v>
-      </c>
-      <c r="J4" s="21">
-        <v>41909</v>
-      </c>
-      <c r="K4" s="21">
-        <v>41910</v>
-      </c>
-      <c r="L4" s="21">
-        <v>41911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="17" t="s">
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -291,9 +291,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="d/mm;@"/>
+    <numFmt numFmtId="165" formatCode="d/mm;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +346,13 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
@@ -414,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -465,10 +472,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1334,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1354,10 +1367,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -1391,10 +1404,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -1428,10 +1441,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1467,10 +1480,10 @@
       <c r="B6" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="25">
         <v>41899</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="25">
         <v>41900</v>
       </c>
       <c r="E6" s="22">
@@ -1502,14 +1515,14 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="18"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1521,14 +1534,14 @@
       <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="18"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -1540,12 +1553,12 @@
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="21"/>
@@ -1563,8 +1576,8 @@
         <v>64</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
         <v>71</v>
@@ -1578,14 +1591,14 @@
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="21"/>
+      <c r="C11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -1597,12 +1610,12 @@
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="21"/>
@@ -1620,8 +1633,8 @@
         <v>46</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
@@ -1639,8 +1652,8 @@
         <v>47</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -1654,14 +1667,14 @@
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="C15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="24"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -1673,12 +1686,12 @@
       <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="21"/>
@@ -1697,7 +1710,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -1716,7 +1729,7 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -1735,7 +1748,7 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
         <v>71</v>
@@ -1754,7 +1767,7 @@
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
@@ -1773,7 +1786,7 @@
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -1792,7 +1805,7 @@
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -1811,7 +1824,7 @@
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
         <v>71</v>
@@ -1830,7 +1843,7 @@
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21" t="s">
@@ -1849,7 +1862,7 @@
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -1868,7 +1881,7 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -1887,7 +1900,7 @@
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
         <v>71</v>
@@ -1906,7 +1919,7 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21" t="s">
@@ -1925,7 +1938,7 @@
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -1944,7 +1957,7 @@
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -1958,12 +1971,12 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21"/>
@@ -1982,7 +1995,7 @@
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21" t="s">
         <v>71</v>
@@ -2001,7 +2014,7 @@
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21" t="s">
@@ -2020,7 +2033,7 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -2039,8 +2052,8 @@
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
@@ -2053,13 +2066,13 @@
       <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="21"/>
@@ -2077,8 +2090,8 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -2095,9 +2108,9 @@
         <v>82</v>
       </c>
       <c r="B38" s="17"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -2114,9 +2127,9 @@
         <v>83</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -165,39 +165,21 @@
     <t>Sypialnia zielona - sufit 1</t>
   </si>
   <si>
-    <t>Sypialnia zielona - ściany 1</t>
-  </si>
-  <si>
     <t>Sypialnia zielona - sufit 2</t>
   </si>
   <si>
-    <t>Sypialnia zielona - ściany 2</t>
-  </si>
-  <si>
     <t>Sypialnia fiolet - sufit 1</t>
   </si>
   <si>
     <t>Sypialnia fiolet - sufit 2</t>
   </si>
   <si>
-    <t>Sypialnia fiolet - ściany 1</t>
-  </si>
-  <si>
-    <t>Sypialnia fiolet - ściany 2</t>
-  </si>
-  <si>
     <t>Garderoba - sufit 1</t>
   </si>
   <si>
     <t>Garderoba - sufit 2</t>
   </si>
   <si>
-    <t>Garderoba - ściany 1</t>
-  </si>
-  <si>
-    <t>Garderoba - ściany 2</t>
-  </si>
-  <si>
     <t>Przedpokój - sufit 1</t>
   </si>
   <si>
@@ -283,6 +265,120 @@
   </si>
   <si>
     <t>Harmonogram malowania - MATI</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony wyspa - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony las - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony wyspa - ściany 2</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony las - ściany 2</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet wrzos - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet wrzos - ściany 2</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet lawenda - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia fiolet lawenda - ściany 2</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Garderoba - ściana 'drzwi' żółta 1</t>
+  </si>
+  <si>
+    <t>Garderoba - ściana 'drzwi' żółta 2</t>
+  </si>
+  <si>
+    <t>Gniazdka kuchnia - przygotować</t>
+  </si>
+  <si>
+    <t>Schody - spotkanie</t>
+  </si>
+  <si>
+    <t>Garedroba - inne sciany 1</t>
+  </si>
+  <si>
+    <t>Garedroba - inne sciany 2</t>
+  </si>
+  <si>
+    <t>Harmonogram walkow</t>
+  </si>
+  <si>
+    <t>Mx, D2 - wrzos</t>
+  </si>
+  <si>
+    <t>Niedziela</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>M1,D1,K1</t>
+  </si>
+  <si>
+    <t>M2,D2,K2</t>
+  </si>
+  <si>
+    <t>M2,D2,K2 - mycie</t>
+  </si>
+  <si>
+    <t>Kupic:</t>
+  </si>
+  <si>
+    <t>duza kuwate</t>
+  </si>
+  <si>
+    <t>maly walek</t>
+  </si>
+  <si>
+    <t>tasma tesa</t>
+  </si>
+  <si>
+    <t>M3,S,K3</t>
+  </si>
+  <si>
+    <t>M1 - wałek mały 1</t>
+  </si>
+  <si>
+    <t>M1 - wałek mały 2</t>
+  </si>
+  <si>
+    <t>M1 - wałek mały 3</t>
+  </si>
+  <si>
+    <t>kupic</t>
+  </si>
+  <si>
+    <t>K1 - kuweta duza 1</t>
+  </si>
+  <si>
+    <t>K2 - kuweta duza 2</t>
+  </si>
+  <si>
+    <t>kupić</t>
+  </si>
+  <si>
+    <t>K3 - kuweta srednia</t>
+  </si>
+  <si>
+    <t>S - wałek średni</t>
+  </si>
+  <si>
+    <t>M1,D1,K1 - mycie</t>
+  </si>
+  <si>
+    <t>pigment</t>
   </si>
 </sst>
 </file>
@@ -293,7 +389,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d/mm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +449,36 @@
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF92D050"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
@@ -421,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,7 +590,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +607,13 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -929,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1345,800 +1477,1068 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="19" customWidth="1"/>
-    <col min="3" max="13" width="7" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="27.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="18" customWidth="1"/>
+    <col min="3" max="7" width="0.42578125" style="18" customWidth="1"/>
+    <col min="8" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="18" customWidth="1"/>
+    <col min="13" max="13" width="0.5703125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="19" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
-      <c r="C1" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    <row r="1" spans="1:16" ht="22.5">
+      <c r="C1" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="D4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="C5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="24">
+        <v>41899</v>
+      </c>
+      <c r="D6" s="24">
+        <v>41900</v>
+      </c>
+      <c r="E6" s="21">
+        <v>41901</v>
+      </c>
+      <c r="F6" s="21">
+        <v>41902</v>
+      </c>
+      <c r="G6" s="21">
+        <v>41903</v>
+      </c>
+      <c r="H6" s="21">
+        <v>41904</v>
+      </c>
+      <c r="I6" s="21">
+        <v>41906</v>
+      </c>
+      <c r="J6" s="21">
+        <v>41907</v>
+      </c>
+      <c r="K6" s="21">
+        <v>41909</v>
+      </c>
+      <c r="L6" s="21">
+        <v>41910</v>
+      </c>
+      <c r="M6" s="21">
+        <v>41911</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" ht="2.25" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="P19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="25">
-        <v>41899</v>
-      </c>
-      <c r="D6" s="25">
-        <v>41900</v>
-      </c>
-      <c r="E6" s="22">
-        <v>41901</v>
-      </c>
-      <c r="F6" s="22">
-        <v>41902</v>
-      </c>
-      <c r="G6" s="22">
-        <v>41903</v>
-      </c>
-      <c r="H6" s="22">
-        <v>41904</v>
-      </c>
-      <c r="I6" s="22">
-        <v>41906</v>
-      </c>
-      <c r="J6" s="22">
-        <v>41907</v>
-      </c>
-      <c r="K6" s="22">
-        <v>41909</v>
-      </c>
-      <c r="L6" s="22">
-        <v>41910</v>
-      </c>
-      <c r="M6" s="22">
-        <v>41911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="P20" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="P23" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="P24" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="P25" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="P29" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="P30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="P31" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="P32" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="0.75" customHeight="1">
+      <c r="A33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:17" ht="0.75" customHeight="1">
+      <c r="A34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="P35" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="P36" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="0.75" customHeight="1">
+      <c r="A37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:17" ht="0.75" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="1:17" ht="0.75" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="P40" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="1:17" ht="2.25" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="24" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="L43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21" t="s">
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="24" t="s">
+      <c r="L46" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21" t="s">
-        <v>42</v>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="49" spans="16:17">
+      <c r="P49" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Mati - Farby.xlsx
+++ b/plan/Mati - Farby.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>Pomieszczenie</t>
   </si>
@@ -270,15 +270,9 @@
     <t>Sypialnia zielony wyspa - ściany 1</t>
   </si>
   <si>
-    <t>Sypialnia zielony las - ściany 1</t>
-  </si>
-  <si>
     <t>Sypialnia zielony wyspa - ściany 2</t>
   </si>
   <si>
-    <t>Sypialnia zielony las - ściany 2</t>
-  </si>
-  <si>
     <t>Sypialnia fiolet wrzos - ściany 1</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>M1,D1,K1</t>
-  </si>
-  <si>
     <t>M2,D2,K2</t>
   </si>
   <si>
@@ -375,10 +366,22 @@
     <t>S - wałek średni</t>
   </si>
   <si>
-    <t>M1,D1,K1 - mycie</t>
-  </si>
-  <si>
     <t>pigment</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony jasny - ściany 1</t>
+  </si>
+  <si>
+    <t>Sypialnia zielony jasny- ściany 2</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>M1, D1, K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2,D2,K2  </t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1488,8 +1491,8 @@
     <col min="1" max="1" width="27.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="18" customWidth="1"/>
     <col min="3" max="7" width="0.42578125" style="18" customWidth="1"/>
-    <col min="8" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="18" customWidth="1"/>
+    <col min="9" max="10" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="18" customWidth="1"/>
     <col min="13" max="13" width="0.5703125" style="18" customWidth="1"/>
@@ -1656,7 +1659,7 @@
         <v>41911</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="2.25" customHeight="1">
@@ -1664,7 +1667,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>43</v>
@@ -1685,7 +1688,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>43</v>
@@ -1706,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
@@ -1727,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1748,7 +1751,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>42</v>
@@ -1769,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
@@ -1790,7 +1793,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -1813,7 +1816,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1834,7 +1837,7 @@
         <v>48</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>42</v>
@@ -1855,7 +1858,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
@@ -1876,7 +1879,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="23"/>
@@ -1894,7 +1897,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="29" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
@@ -1902,10 +1905,10 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="H18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -1930,13 +1933,13 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="P19" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="29" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -1945,15 +1948,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="I20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="P20" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="2.25" customHeight="1">
@@ -1961,7 +1964,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="23"/>
@@ -1982,7 +1985,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="23"/>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="19"/>
@@ -2008,21 +2011,21 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="P23" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -2032,19 +2035,19 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="P24" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -2053,20 +2056,20 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="K25" s="20"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="P25" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -2077,10 +2080,10 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="17"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="2.25" customHeight="1">
@@ -2088,7 +2091,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="23"/>
@@ -2109,7 +2112,7 @@
         <v>53</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="23"/>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -2135,21 +2138,19 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="P29" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -2159,22 +2160,22 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="P30" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -2184,21 +2185,21 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="P31" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -2209,15 +2210,15 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="P32" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="0.75" customHeight="1">
@@ -2225,7 +2226,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="23"/>
@@ -2246,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="23"/>
@@ -2272,21 +2273,19 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="P35" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2300,17 +2299,15 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="P36" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="0.75" customHeight="1">
@@ -2318,7 +2315,7 @@
         <v>59</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="23" t="s">
@@ -2339,7 +2336,7 @@
         <v>60</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="23"/>
@@ -2360,7 +2357,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="23"/>
@@ -2389,13 +2386,13 @@
       <c r="H40" s="20"/>
       <c r="I40" s="17"/>
       <c r="J40" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="P40" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2412,7 +2409,7 @@
       <c r="I41" s="17"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -2422,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="23"/>
@@ -2495,7 +2492,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -2535,10 +2532,10 @@
     </row>
     <row r="49" spans="16:17">
       <c r="P49" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
